--- a/results/gurobi_cplex_comparison/seed_30_k_45.xlsx
+++ b/results/gurobi_cplex_comparison/seed_30_k_45.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.008999999999999999</v>
+        <v>1.216</v>
       </c>
       <c r="F2">
-        <v>0.031</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.028</v>
+        <v>1.755</v>
       </c>
       <c r="F3">
-        <v>0.045</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.032</v>
+        <v>2.417</v>
       </c>
       <c r="F4">
-        <v>0.052</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.031</v>
+        <v>3.131</v>
       </c>
       <c r="F5">
-        <v>0.056</v>
+        <v>0.727</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.031</v>
+        <v>3.966</v>
       </c>
       <c r="F6">
-        <v>0.064</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.034</v>
+        <v>4.894</v>
       </c>
       <c r="F7">
-        <v>0.06900000000000001</v>
+        <v>1.058</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.063</v>
+        <v>5.971</v>
       </c>
       <c r="F8">
-        <v>0.083</v>
+        <v>1.307</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.056</v>
+        <v>7.08</v>
       </c>
       <c r="F9">
-        <v>0.08699999999999999</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.046</v>
+        <v>8.333</v>
       </c>
       <c r="F10">
-        <v>0.098</v>
+        <v>1.693</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.181</v>
+        <v>9.832000000000001</v>
       </c>
       <c r="F11">
-        <v>27.819</v>
+        <v>90.953</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.142</v>
+        <v>11.162</v>
       </c>
       <c r="F12">
-        <v>123.913</v>
+        <v>89.97199999999999</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.154</v>
+        <v>12.656</v>
       </c>
       <c r="F13">
-        <v>113.402</v>
+        <v>73.48999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.158</v>
+        <v>14.347</v>
       </c>
       <c r="F14">
-        <v>107.969</v>
+        <v>95.84099999999999</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.065</v>
+        <v>15.949</v>
       </c>
       <c r="F15">
-        <v>145.188</v>
+        <v>66.614</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.114</v>
+        <v>17.861</v>
       </c>
       <c r="F16">
-        <v>163.529</v>
+        <v>131.741</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.193</v>
+        <v>19.927</v>
       </c>
       <c r="F17">
-        <v>128.444</v>
+        <v>141.736</v>
       </c>
     </row>
   </sheetData>
